--- a/biology/Médecine/Giovanni_Rasori/Giovanni_Rasori.xlsx
+++ b/biology/Médecine/Giovanni_Rasori/Giovanni_Rasori.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giovanni Rasori (né le 20 août 1766 à Parme; mort le 12 avril 1837 à Milan) est un médecin italien de la fin du XVIIIe et du début du XIXe siècle.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Parme, Giovanni Rasori était fils du directeur de la pharmacie de l'hôpital de Parme. Pensionné par le duc de Parme pour aller compléter ses études médicales dans les universités étrangères, il visita dans ce but Florence, Pavie, Londres et Milan.
 Il fut nommé en 1796 professeur de pathologie, puis recteur à la Faculté de médecine de l'université de Pavie. Favorable aux idées progressistes, il devint en 1797 secrétaire du ministère de l'intérieur de la République cisalpine à Milan.
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>On a de Giovanni Rasori :
 une traduction de Brown en italien, Pavie, 1792,
@@ -579,7 +595,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie-Nicolas Bouillet  et Alexis Chassang (dir.), « Giovanni Rasori » dans Dictionnaire universel d’histoire et de géographie, 1878 (lire sur Wikisource)
 </t>
